--- a/Temp_folder/FODA Stratech.xlsx
+++ b/Temp_folder/FODA Stratech.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="300" windowWidth="14880" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="EFE" sheetId="1" r:id="rId1"/>
     <sheet name="EFI" sheetId="4" r:id="rId2"/>
     <sheet name="FODA Cruzado" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -321,8 +321,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,10 +508,18 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -558,7 +566,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -590,9 +598,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -624,6 +633,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -799,14 +809,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
@@ -814,7 +824,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>5</v>
       </c>
@@ -823,14 +833,14 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="26.25">
+    <row r="4" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -843,7 +853,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>4</v>
@@ -856,7 +866,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="30">
+    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>6</v>
       </c>
@@ -878,7 +888,7 @@
         <v>5.5555555555555552E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>8</v>
       </c>
@@ -896,7 +906,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>10</v>
       </c>
@@ -914,7 +924,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>12</v>
       </c>
@@ -932,7 +942,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="10" spans="2:9" ht="30">
+    <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
@@ -950,7 +960,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
@@ -968,7 +978,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
@@ -986,7 +996,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="30">
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1014,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>24</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
       <c r="C15" s="14" t="s">
         <v>21</v>
@@ -1035,7 +1045,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="30">
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
@@ -1053,7 +1063,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30">
+    <row r="17" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>27</v>
       </c>
@@ -1071,7 +1081,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30">
+    <row r="18" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>28</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1">
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>30</v>
       </c>
@@ -1107,7 +1117,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="12"/>
       <c r="C20" s="17" t="s">
         <v>32</v>
@@ -1132,14 +1142,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="44.7109375" customWidth="1"/>
@@ -1147,7 +1157,7 @@
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
         <v>34</v>
       </c>
@@ -1156,14 +1166,14 @@
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="2:9">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="2:9" ht="26.25">
+    <row r="4" spans="2:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
@@ -1176,7 +1186,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:9">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -1189,7 +1199,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
         <v>38</v>
       </c>
@@ -1211,7 +1221,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="30">
+    <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="10" t="s">
         <v>39</v>
       </c>
@@ -1229,7 +1239,7 @@
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="30">
+    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
         <v>40</v>
       </c>
@@ -1247,7 +1257,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="30">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>41</v>
       </c>
@@ -1265,7 +1275,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>42</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>0.21000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>43</v>
       </c>
@@ -1301,7 +1311,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="12" spans="2:9" ht="30">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>44</v>
       </c>
@@ -1319,7 +1329,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="13" spans="2:9" ht="30">
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>45</v>
       </c>
@@ -1337,7 +1347,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
       <c r="C14" s="14" t="s">
         <v>35</v>
@@ -1350,7 +1360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="30">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>56</v>
       </c>
@@ -1368,7 +1378,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="30">
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
@@ -1386,7 +1396,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
@@ -1404,7 +1414,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1">
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
@@ -1422,7 +1432,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -1440,7 +1450,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>61</v>
       </c>
@@ -1458,7 +1468,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="30" customHeight="1">
+    <row r="21" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>62</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="17" t="s">
         <v>32</v>
@@ -1501,14 +1511,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G26"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.7109375" customWidth="1"/>
@@ -1518,7 +1528,7 @@
     <col min="7" max="7" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="24" t="s">
@@ -1530,7 +1540,7 @@
       </c>
       <c r="G2" s="27"/>
     </row>
-    <row r="3" spans="2:7" ht="30">
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="10" t="s">
@@ -1546,7 +1556,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="30">
+    <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="10" t="s">
@@ -1562,7 +1572,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="30">
+    <row r="5" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="10" t="s">
@@ -1578,7 +1588,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="30">
+    <row r="6" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="10" t="s">
@@ -1594,7 +1604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="10" t="s">
@@ -1610,7 +1620,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="10" t="s">
@@ -1626,7 +1636,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="30">
+    <row r="9" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="10" t="s">
@@ -1642,7 +1652,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="30">
+    <row r="10" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="10" t="s">
@@ -1654,7 +1664,7 @@
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="12"/>
@@ -1662,7 +1672,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="24" t="s">
         <v>4</v>
       </c>
@@ -1676,7 +1686,7 @@
       </c>
       <c r="G12" s="29"/>
     </row>
-    <row r="13" spans="2:7" ht="60">
+    <row r="13" spans="2:7" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>6</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="45">
+    <row r="14" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
         <v>8</v>
       </c>
@@ -1712,7 +1722,7 @@
       </c>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="2:7" ht="30">
+    <row r="15" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>10</v>
       </c>
@@ -1728,7 +1738,7 @@
       </c>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="2:7" ht="30">
+    <row r="16" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
         <v>12</v>
       </c>
@@ -1744,7 +1754,7 @@
       </c>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="2:7" ht="30">
+    <row r="17" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>13</v>
       </c>
@@ -1760,7 +1770,7 @@
       </c>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
@@ -1776,7 +1786,7 @@
       </c>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="2:7" ht="30">
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>17</v>
       </c>
@@ -1792,7 +1802,7 @@
       </c>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="2:7" ht="30">
+    <row r="20" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1818,7 @@
       </c>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="2:7" ht="30">
+    <row r="21" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>24</v>
       </c>
@@ -1824,7 +1834,7 @@
       </c>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="26" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1848,7 @@
       </c>
       <c r="G22" s="30"/>
     </row>
-    <row r="23" spans="2:7" ht="45">
+    <row r="23" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>22</v>
       </c>
@@ -1858,7 +1868,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="24" spans="2:7" ht="30">
+    <row r="24" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
@@ -1874,7 +1884,7 @@
       </c>
       <c r="G24" s="11"/>
     </row>
-    <row r="25" spans="2:7" ht="45">
+    <row r="25" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>28</v>
       </c>
@@ -1890,7 +1900,7 @@
       </c>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="2:7" ht="45">
+    <row r="26" spans="2:7" ht="45" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
         <v>30</v>
       </c>
